--- a/EXCEL_TASKS_25.01.26.xlsx
+++ b/EXCEL_TASKS_25.01.26.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\JIYA GITHUB\DATA-ANALYTICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC89EC4-389B-4F6C-A1B5-9A5ECE658A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF3005-9EC8-4515-AECA-3D166A88C394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{DB098DFD-AE25-4C21-BC30-7F9A9D2BAA90}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,12 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,6 +351,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +674,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,12 +737,12 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -758,10 +758,10 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -777,10 +777,10 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -791,16 +791,16 @@
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -811,16 +811,16 @@
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C16" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Pass</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -831,16 +831,16 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -851,16 +851,16 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Pass</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -919,11 +919,11 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -935,11 +935,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -951,11 +951,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="str">
         <f ca="1">IF(C16&gt;=40,"Pass","Fail")</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +972,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,10 +1001,10 @@
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>45</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>92</v>
       </c>
       <c r="D2" s="2" t="str">
@@ -1016,10 +1016,10 @@
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>38</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>85</v>
       </c>
       <c r="D3" s="2" t="str">
@@ -1031,10 +1031,10 @@
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>50</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>95</v>
       </c>
       <c r="D4" s="2" t="str">
@@ -1046,23 +1046,23 @@
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>30</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>70</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NEEDS IMPROVEMENT</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1070,21 +1070,21 @@
       </c>
       <c r="B6" s="4">
         <f ca="1">RANDBETWEEN(30,50)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4">
         <f ca="1">RANDBETWEEN(70,99)</f>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>NEEDS IMPROVEMENT</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1092,21 +1092,21 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ref="B7:B16" ca="1" si="1">RANDBETWEEN(30,50)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:C16" ca="1" si="2">RANDBETWEEN(70,99)</f>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>GOOD</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1114,21 +1114,21 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NEEDS IMPROVEMENT</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+        <v>GOOD</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1136,21 +1136,21 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GOOD</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+        <v>NEEDS IMPROVEMENT</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1158,21 +1158,21 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>EXCELLENT</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1180,21 +1180,21 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>GOOD</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1202,21 +1202,21 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>GOOD</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1224,15 +1224,15 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GOOD</v>
+        <v>EXCELLENT</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,15 +1241,15 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GOOD</v>
+        <v>NEEDS IMPROVEMENT</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1258,15 +1258,15 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GOOD</v>
+        <v>NEEDS IMPROVEMENT</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1275,15 +1275,15 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GOOD</v>
+        <v>NEEDS IMPROVEMENT</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,235 +1310,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>28000</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="5" t="str">
         <f>IF(B2&gt;=40000,"Bonus","No Bonus")</f>
         <v>No Bonus</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>45000</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C16" si="0">IF(B3&gt;=40000,"Bonus","No Bonus")</f>
         <v>Bonus</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>52000</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Bonus</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>30000</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>No Bonus</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <f ca="1">RANDBETWEEN(20000,60000)</f>
-        <v>47602</v>
-      </c>
-      <c r="C6" s="7" t="str">
+        <v>59792</v>
+      </c>
+      <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Bonus</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <f t="shared" ref="B7:B16" ca="1" si="1">RANDBETWEEN(20000,60000)</f>
-        <v>25456</v>
-      </c>
-      <c r="C7" s="7" t="str">
+        <v>29042</v>
+      </c>
+      <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>No Bonus</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>22087</v>
-      </c>
-      <c r="C8" s="7" t="str">
+      <c r="B8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>24606</v>
+      </c>
+      <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>No Bonus</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>52622</v>
-      </c>
-      <c r="C9" s="7" t="str">
+      <c r="B9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>33927</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No Bonus</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>35694</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No Bonus</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43889</v>
+      </c>
+      <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Bonus</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+    <row r="12" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>31214</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No Bonus</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>37241</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No Bonus</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>20644</v>
-      </c>
-      <c r="C10" s="7" t="str">
+      <c r="B14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>39341</v>
+      </c>
+      <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>No Bonus</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+    <row r="15" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>28349</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No Bonus</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="B15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>40700</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bonus</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>22664</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No Bonus</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>39463</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No Bonus</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>55923</v>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bonus</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>28941</v>
-      </c>
-      <c r="C15" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No Bonus</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>57033</v>
-      </c>
-      <c r="C16" s="7" t="str">
+      <c r="B16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>57086</v>
+      </c>
+      <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Bonus</v>
       </c>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,15 +1623,15 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1642,11 +1642,11 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1659,11 +1659,11 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1676,11 +1676,11 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1693,11 +1693,11 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1710,13 +1710,13 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1727,11 +1727,11 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1806,7 +1806,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1837,7 @@
       <c r="B2" s="2">
         <v>25</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="str">
@@ -1845,27 +1845,27 @@
         <v>Eligible</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D16" si="0">IF(AND(B3&gt;=21,C3&gt;=1),"Eligible","Not Eligible")</f>
         <v>Not Eligible</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1874,18 +1874,18 @@
       <c r="B4" s="2">
         <v>30</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1894,18 +1894,18 @@
       <c r="B5" s="3">
         <v>22</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Not Eligible</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1913,43 +1913,43 @@
       </c>
       <c r="B6" s="2">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4">
         <f ca="1">RANDBETWEEN(0,6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Not Eligible</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Eligible</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ref="B7:B16" ca="1" si="1">RANDBETWEEN(20,30)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:C16" ca="1" si="2">RANDBETWEEN(0,6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -1965,13 +1965,13 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Eligible</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+        <v>Not Eligible</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1979,21 +1979,21 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Not Eligible</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+        <v>Eligible</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -2001,15 +2001,15 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Eligible</v>
+        <v>Not Eligible</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2018,15 +2018,15 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -2052,11 +2052,11 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2086,11 +2086,11 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2181,13 +2181,13 @@
         <f t="shared" ref="D3:D15" si="0">IF(AND(B3&gt;=75,C3="Yes"),"Eligible","Not Eligible")</f>
         <v>Not Eligible</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2203,11 +2203,11 @@
         <f t="shared" si="0"/>
         <v>Not Eligible</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -2223,11 +2223,11 @@
         <f t="shared" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2243,11 +2243,11 @@
         <f t="shared" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -2263,11 +2263,11 @@
         <f t="shared" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2283,11 +2283,11 @@
         <f t="shared" si="0"/>
         <v>Not Eligible</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -2303,11 +2303,11 @@
         <f t="shared" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -2323,11 +2323,11 @@
         <f t="shared" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2446,7 @@
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>9000</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2461,7 +2461,7 @@
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>12000</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2471,20 +2471,20 @@
         <f t="shared" ref="D3:D17" si="0">IF(OR(B3&gt;=10000,C3="Yes"),"Discount","No Discount")</f>
         <v>Discount</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2494,18 +2494,18 @@
         <f t="shared" si="0"/>
         <v>Discount</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>3000</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2515,12 +2515,12 @@
         <f t="shared" si="0"/>
         <v>No Discount</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B6" s="4">
         <f ca="1">RANDBETWEEN(2000,9000)</f>
-        <v>2070</v>
+        <v>4834</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
@@ -2537,12 +2537,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>No Discount</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ref="B7:B16" ca="1" si="1">RANDBETWEEN(2000,9000)</f>
-        <v>4600</v>
+        <v>8283</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -2559,12 +2559,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>No Discount</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5956</v>
+        <v>7368</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2581,12 +2581,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>Discount</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5775</v>
+        <v>8611</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -2603,12 +2603,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>No Discount</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4995</v>
+        <v>5422</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6464</v>
+        <v>8633</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3657</v>
+        <v>2009</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6303</v>
+        <v>3831</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2704</v>
+        <v>3586</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2380</v>
+        <v>5044</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3977</v>
+        <v>7328</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -2741,7 +2741,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,301 +2753,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>35000</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>720</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="8" t="str">
         <f>IF(OR(B2&gt;=40000,C2&gt;=700),"Eligible","Rejected")</f>
         <v>Eligible</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>25000</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>680</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D16" si="0">IF(OR(B3&gt;=40000,C3&gt;=700),"Eligible","Rejected")</f>
         <v>Rejected</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>50000</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>650</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>20000</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>600</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Rejected</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <f ca="1">RANDBETWEEN(20000,60000)</f>
-        <v>53718</v>
-      </c>
-      <c r="C6" s="10">
+        <v>43359</v>
+      </c>
+      <c r="C6" s="8">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>629</v>
-      </c>
-      <c r="D6" s="10" t="str">
+        <v>582</v>
+      </c>
+      <c r="D6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <f t="shared" ref="B7:B16" ca="1" si="1">RANDBETWEEN(20000,60000)</f>
-        <v>54746</v>
-      </c>
-      <c r="C7" s="10">
+        <v>39455</v>
+      </c>
+      <c r="C7" s="8">
         <f t="shared" ref="C7:C16" ca="1" si="2">RANDBETWEEN(500,800)</f>
-        <v>507</v>
-      </c>
-      <c r="D7" s="10" t="str">
+        <v>665</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Rejected</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43267</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="D8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>28039</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>519</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Rejected</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>46107</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>787</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Eligible</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>52698</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>643</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>38101</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B12" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>52285</v>
+      </c>
+      <c r="C12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>751</v>
-      </c>
-      <c r="D8" s="10" t="str">
+        <v>519</v>
+      </c>
+      <c r="D12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="13" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>41940</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B13" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>44076</v>
+      </c>
+      <c r="C13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>760</v>
-      </c>
-      <c r="D9" s="10" t="str">
+        <v>776</v>
+      </c>
+      <c r="D13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44906</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B14" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>23749</v>
+      </c>
+      <c r="C14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>505</v>
-      </c>
-      <c r="D10" s="10" t="str">
+        <v>696</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>41017</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>597</v>
+      </c>
+      <c r="D15" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Eligible</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>53943</v>
-      </c>
-      <c r="C11" s="10">
+    </row>
+    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>31496</v>
+      </c>
+      <c r="C16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>647</v>
-      </c>
-      <c r="D11" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Eligible</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>58305</v>
-      </c>
-      <c r="C12" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>590</v>
-      </c>
-      <c r="D12" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Eligible</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>31681</v>
-      </c>
-      <c r="C13" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>655</v>
-      </c>
-      <c r="D13" s="10" t="str">
+        <v>621</v>
+      </c>
+      <c r="D16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Rejected</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>55879</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>602</v>
-      </c>
-      <c r="D14" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Eligible</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>31676</v>
-      </c>
-      <c r="C15" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>800</v>
-      </c>
-      <c r="D15" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Eligible</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>59097</v>
-      </c>
-      <c r="C16" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>773</v>
-      </c>
-      <c r="D16" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Eligible</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3063,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,222 +3074,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="b">
+      <c r="B2" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="9" t="str">
         <f>IF(NOT(B2),"Absent","Present")</f>
         <v>Present</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="b">
+      <c r="B3" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="9" t="str">
         <f t="shared" ref="C3:C16" si="0">IF(NOT(B3),"Absent","Present")</f>
         <v>Absent</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="b">
+      <c r="B4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Present</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="b">
+      <c r="B5" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Absent</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="b">
+      <c r="B6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Present</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="b">
+      <c r="B7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Absent</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="b">
+      <c r="B8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Present</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="b">
+      <c r="B9" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Absent</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="b">
+      <c r="B10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Present</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="b">
+      <c r="B11" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Absent</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="b">
+      <c r="B12" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Present</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="b">
+      <c r="B13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Absent</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="b">
+      <c r="B14" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Present</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="11" t="b">
+      <c r="B15" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Absent</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="b">
+      <c r="B16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Present</v>
       </c>
@@ -3307,7 +3307,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,13 +3375,13 @@
         <f t="shared" si="0"/>
         <v>INVALID</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -3390,22 +3390,22 @@
       </c>
       <c r="B6" s="2">
         <f ca="1">RANDBETWEEN(0,8)</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>INVALID</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A16" ca="1" si="1">RANDBETWEEN(8,25)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ref="B7:B16" ca="1" si="2">RANDBETWEEN(0,8)</f>
@@ -3415,171 +3415,171 @@
         <f t="shared" ca="1" si="0"/>
         <v>INVALID</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.125</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INVALID</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.5</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.125</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
   </sheetData>
